--- a/livrable/Modèle-audit-SEO.xlsx
+++ b/livrable/Modèle-audit-SEO.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -443,10 +443,145 @@
       <c r="D3" t="str">
         <v>convertir en JPG</v>
       </c>
+      <c r="F3" t="str">
+        <v>https://web-eau.net/blog/mon-site-est-tres-lent-que-faire</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="str">
+        <v>&lt;title&gt;.&lt;/title&gt;</v>
+      </c>
+      <c r="C4" t="str">
+        <v>le titre est un point</v>
+      </c>
+      <c r="D4" t="str">
+        <v>mettre le nom de l'agence avec une description courte</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="str">
+        <v xml:space="preserve">opacité nulle , page2, .scrollToTop </v>
+      </c>
+      <c r="C5" t="str">
+        <v>bouton pour remonté en haut de page invisible</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="str">
+        <v>lien vers réseau sociaux inexistant</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="str">
+        <v>lien dans footer pas operationnel</v>
+      </c>
+      <c r="C7" t="str">
+        <v>il faut un schemin commancant par http ou https</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="str">
+        <v>de meme pour le lien vers le css</v>
+      </c>
+      <c r="C8" t="str">
+        <v>il faut ajouter ./ au chemin. Ca fonctionne sur le pc mais pas sur l'hebergement github pages par exmple</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="str">
+        <v>lang="Default"</v>
+      </c>
+      <c r="C9" t="str">
+        <v>langage invalide</v>
+      </c>
+      <c r="D9" t="str">
+        <v>lang="fr"</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="str">
+        <v xml:space="preserve">    &lt;meta name="description" content=""&gt;</v>
+      </c>
+      <c r="E10" t="str">
+        <v xml:space="preserve">    &lt;meta name="description" content="L'agence La Panthère est une agence de web design qui aide les entreprises à devenir attractives et visibles sur Internet."&gt;</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="str">
+        <v>class keyword, presque invisible dans le body</v>
+      </c>
+      <c r="C11" t="str">
+        <v>3 fois tres petit, ou couleur de meme du fond</v>
+      </c>
+      <c r="D11" t="str">
+        <v>uniqement dans le head</v>
+      </c>
+      <c r="E11" t="str">
+        <v>suppression</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="str">
+        <v xml:space="preserve">    &lt;meta name=keywords content=&gt;</v>
+      </c>
+      <c r="C12" t="str">
+        <v>probleme inversé en page 2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="str">
+        <v>nom page2 non representatif</v>
+      </c>
+      <c r="C13" t="str">
+        <v>changer page2 en contact</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="str">
+        <v>block JS en html en haut</v>
+      </c>
+      <c r="C14" t="str">
+        <v>durée de chargement sera élévee</v>
+      </c>
+      <c r="D14" t="str">
+        <v>mettre en bas de page</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="str">
+        <v>citation en image au lieu de text</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="str">
+        <v>font size en version mobile pas bon</v>
+      </c>
+      <c r="C16" t="str">
+        <v>p : 11, html : 10</v>
+      </c>
+      <c r="D16" t="str">
+        <v>fontsize &gt;= 12</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="str">
+        <v>lien doit etre grand</v>
+      </c>
+      <c r="D17" t="str">
+        <v>min hight &gt;= 48</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="str">
+        <v>de meme page fouter non identique en page 2</v>
+      </c>
+      <c r="D18" t="str">
+        <v>je supprime car inutile et lien non operationnels</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F18"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/livrable/Modèle-audit-SEO.xlsx
+++ b/livrable/Modèle-audit-SEO.xlsx
@@ -397,191 +397,311 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
-      <c r="A1" t="str">
+      <c r="B1" t="str">
         <v>Catégorie</v>
       </c>
-      <c r="B1" t="str">
+      <c r="C1" t="str">
         <v>Problème identifié</v>
       </c>
-      <c r="C1" t="str">
+      <c r="D1" t="str">
         <v>Explication du problème</v>
       </c>
-      <c r="D1" t="str">
+      <c r="E1" t="str">
         <v>Bonne pratique à adopter</v>
       </c>
-      <c r="E1" t="str">
+      <c r="F1" t="str">
         <v>Action recommandée</v>
       </c>
-      <c r="F1" t="str">
+      <c r="G1" t="str">
         <v>Référence</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="str">
-        <v>(SEO ou accessiblité ?)</v>
-      </c>
       <c r="B2" t="str">
+        <v>Accessibilité</v>
+      </c>
+      <c r="C2" t="str">
         <v>placement hors écran</v>
       </c>
-      <c r="C2" t="str">
+      <c r="D2" t="str">
         <v>Page 2, class : site-navigation nav navbar-nav , menu invisible partiellement</v>
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="str">
+        <v>2</v>
+      </c>
       <c r="B3" t="str">
+        <v>SEO</v>
+      </c>
+      <c r="C3" t="str">
         <v>images volunineuses</v>
       </c>
-      <c r="C3" t="str">
+      <c r="D3" t="str">
         <v>image 3 , 4 , image-de-presentation sont de format BMP</v>
       </c>
-      <c r="D3" t="str">
+      <c r="E3" t="str">
         <v>convertir en JPG</v>
       </c>
-      <c r="F3" t="str">
+      <c r="G3" t="str">
         <v>https://web-eau.net/blog/mon-site-est-tres-lent-que-faire</v>
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="str">
+        <v>1</v>
+      </c>
       <c r="B4" t="str">
+        <v>SEO</v>
+      </c>
+      <c r="C4" t="str">
         <v>&lt;title&gt;.&lt;/title&gt;</v>
       </c>
-      <c r="C4" t="str">
+      <c r="D4" t="str">
         <v>le titre est un point</v>
       </c>
-      <c r="D4" t="str">
+      <c r="E4" t="str">
         <v>mettre le nom de l'agence avec une description courte</v>
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="str">
+        <v>3</v>
+      </c>
       <c r="B5" t="str">
+        <v>Accessibilité</v>
+      </c>
+      <c r="C5" t="str">
         <v xml:space="preserve">opacité nulle , page2, .scrollToTop </v>
       </c>
-      <c r="C5" t="str">
+      <c r="D5" t="str">
         <v>bouton pour remonté en haut de page invisible</v>
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="str">
+        <v>4</v>
+      </c>
       <c r="B6" t="str">
+        <v>SEO</v>
+      </c>
+      <c r="C6" t="str">
         <v>lien vers réseau sociaux inexistant</v>
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="str">
+        <v>5</v>
+      </c>
       <c r="B7" t="str">
+        <v>SEO</v>
+      </c>
+      <c r="C7" t="str">
         <v>lien dans footer pas operationnel</v>
       </c>
-      <c r="C7" t="str">
+      <c r="D7" t="str">
         <v>il faut un schemin commancant par http ou https</v>
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="str">
+        <v>6</v>
+      </c>
       <c r="B8" t="str">
+        <v>SEO</v>
+      </c>
+      <c r="C8" t="str">
         <v>de meme pour le lien vers le css</v>
       </c>
-      <c r="C8" t="str">
+      <c r="D8" t="str">
         <v>il faut ajouter ./ au chemin. Ca fonctionne sur le pc mais pas sur l'hebergement github pages par exmple</v>
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="str">
+        <v>7</v>
+      </c>
       <c r="B9" t="str">
+        <v>SEO</v>
+      </c>
+      <c r="C9" t="str">
         <v>lang="Default"</v>
       </c>
-      <c r="C9" t="str">
+      <c r="D9" t="str">
         <v>langage invalide</v>
       </c>
-      <c r="D9" t="str">
+      <c r="E9" t="str">
         <v>lang="fr"</v>
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="str">
+        <v>8</v>
+      </c>
       <c r="B10" t="str">
+        <v>SEO</v>
+      </c>
+      <c r="C10" t="str">
         <v xml:space="preserve">    &lt;meta name="description" content=""&gt;</v>
       </c>
-      <c r="E10" t="str">
+      <c r="F10" t="str">
         <v xml:space="preserve">    &lt;meta name="description" content="L'agence La Panthère est une agence de web design qui aide les entreprises à devenir attractives et visibles sur Internet."&gt;</v>
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="str">
+        <v>9</v>
+      </c>
       <c r="B11" t="str">
+        <v>SEO</v>
+      </c>
+      <c r="C11" t="str">
         <v>class keyword, presque invisible dans le body</v>
       </c>
-      <c r="C11" t="str">
+      <c r="D11" t="str">
         <v>3 fois tres petit, ou couleur de meme du fond</v>
       </c>
-      <c r="D11" t="str">
+      <c r="E11" t="str">
         <v>uniqement dans le head</v>
       </c>
-      <c r="E11" t="str">
+      <c r="F11" t="str">
         <v>suppression</v>
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="str">
+        <v>9b</v>
+      </c>
       <c r="B12" t="str">
+        <v>SEO</v>
+      </c>
+      <c r="C12" t="str">
         <v xml:space="preserve">    &lt;meta name=keywords content=&gt;</v>
       </c>
-      <c r="C12" t="str">
+      <c r="D12" t="str">
         <v>probleme inversé en page 2</v>
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="str">
+        <v>10</v>
+      </c>
       <c r="B13" t="str">
+        <v>SEO</v>
+      </c>
+      <c r="C13" t="str">
         <v>nom page2 non representatif</v>
       </c>
-      <c r="C13" t="str">
+      <c r="D13" t="str">
         <v>changer page2 en contact</v>
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="str">
+        <v>11</v>
+      </c>
       <c r="B14" t="str">
+        <v>SEO</v>
+      </c>
+      <c r="C14" t="str">
         <v>block JS en html en haut</v>
       </c>
-      <c r="C14" t="str">
+      <c r="D14" t="str">
         <v>durée de chargement sera élévee</v>
       </c>
-      <c r="D14" t="str">
+      <c r="E14" t="str">
         <v>mettre en bas de page</v>
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="str">
+        <v>12</v>
+      </c>
       <c r="B15" t="str">
+        <v>Accessibilité</v>
+      </c>
+      <c r="C15" t="str">
         <v>citation en image au lieu de text</v>
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="str">
+        <v>13</v>
+      </c>
       <c r="B16" t="str">
+        <v>SEO</v>
+      </c>
+      <c r="C16" t="str">
+        <v>Header non ordonné H1 vers H3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>14</v>
+      </c>
+      <c r="B17" t="str">
+        <v>Accessibilité</v>
+      </c>
+      <c r="C17" t="str">
         <v>font size en version mobile pas bon</v>
       </c>
-      <c r="C16" t="str">
+      <c r="D17" t="str">
         <v>p : 11, html : 10</v>
       </c>
-      <c r="D16" t="str">
+      <c r="E17" t="str">
         <v>fontsize &gt;= 12</v>
       </c>
     </row>
-    <row r="17">
-      <c r="B17" t="str">
-        <v>lien doit etre grand</v>
-      </c>
-      <c r="D17" t="str">
+    <row r="18">
+      <c r="A18" t="str">
+        <v>15</v>
+      </c>
+      <c r="B18" t="str">
+        <v>Accessibilité</v>
+      </c>
+      <c r="C18" t="str">
+        <v>lien doit etre grand footer + reseau sociaux</v>
+      </c>
+      <c r="E18" t="str">
         <v>min hight &gt;= 48</v>
       </c>
     </row>
-    <row r="18">
-      <c r="B18" t="str">
-        <v>de meme page fouter non identique en page 2</v>
-      </c>
-      <c r="D18" t="str">
-        <v>je supprime car inutile et lien non operationnels</v>
+    <row r="19">
+      <c r="B19" t="str">
+        <v>SEO</v>
+      </c>
+      <c r="C19" t="str">
+        <v>Pas de fichier sitemap</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="str">
+        <v>Performence</v>
+      </c>
+      <c r="C20" t="str">
+        <v>font, bootstrp, js consomme des ressource de serveur</v>
+      </c>
+      <c r="D20" t="str">
+        <v>utiliser les CDN</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="str">
+        <v>Accessibilité</v>
+      </c>
+      <c r="C21" t="str">
+        <v>contrast couleur</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F18"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G21"/>
   </ignoredErrors>
 </worksheet>
 </file>